--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Tgfa-Erbb2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Tgfa-Erbb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,9 +80,6 @@
   </si>
   <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
   <si>
     <t>Tgfa</t>
@@ -455,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +540,16 @@
         <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.5005475</v>
+        <v>0.4368315</v>
       </c>
       <c r="H2">
-        <v>1.001095</v>
+        <v>0.873663</v>
       </c>
       <c r="I2">
-        <v>0.5426527400820786</v>
+        <v>0.5629387977071691</v>
       </c>
       <c r="J2">
-        <v>0.4669329937779271</v>
+        <v>0.5629387977071691</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.1122635</v>
+        <v>4.138389</v>
       </c>
       <c r="N2">
-        <v>6.224527</v>
+        <v>8.276778</v>
       </c>
       <c r="O2">
-        <v>0.2822077032432218</v>
+        <v>0.3843663898945971</v>
       </c>
       <c r="P2">
-        <v>0.2312074682901326</v>
+        <v>0.3371083667718477</v>
       </c>
       <c r="Q2">
-        <v>1.55783571426625</v>
+        <v>1.8077786744535</v>
       </c>
       <c r="R2">
-        <v>6.231342857065001</v>
+        <v>7.231114697814</v>
       </c>
       <c r="S2">
-        <v>0.1531407834372044</v>
+        <v>0.2163747534063095</v>
       </c>
       <c r="T2">
-        <v>0.1079583953525268</v>
+        <v>0.1897713786875714</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,13 +587,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>25</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -605,16 +602,16 @@
         <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.5005475</v>
+        <v>0.4368315</v>
       </c>
       <c r="H3">
-        <v>1.001095</v>
+        <v>0.873663</v>
       </c>
       <c r="I3">
-        <v>0.5426527400820786</v>
+        <v>0.5629387977071691</v>
       </c>
       <c r="J3">
-        <v>0.4669329937779271</v>
+        <v>0.5629387977071691</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.013819333333334</v>
+        <v>3.013819333333333</v>
       </c>
       <c r="N3">
-        <v>9.041458</v>
+        <v>9.041457999999999</v>
       </c>
       <c r="O3">
-        <v>0.2732811768830042</v>
+        <v>0.2799183104700584</v>
       </c>
       <c r="P3">
-        <v>0.3358411994729184</v>
+        <v>0.3682533395986042</v>
       </c>
       <c r="Q3">
-        <v>1.508559732751667</v>
+        <v>1.316531220109</v>
       </c>
       <c r="R3">
-        <v>9.05135839651</v>
+        <v>7.899187320653999</v>
       </c>
       <c r="S3">
-        <v>0.1482967794484174</v>
+        <v>0.1575768771522368</v>
       </c>
       <c r="T3">
-        <v>0.1568153367038597</v>
+        <v>0.2073040922452881</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -667,16 +664,16 @@
         <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.5005475</v>
+        <v>0.4368315</v>
       </c>
       <c r="H4">
-        <v>1.001095</v>
+        <v>0.873663</v>
       </c>
       <c r="I4">
-        <v>0.5426527400820786</v>
+        <v>0.5629387977071691</v>
       </c>
       <c r="J4">
-        <v>0.4669329937779271</v>
+        <v>0.5629387977071691</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -685,28 +682,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.01648566666666667</v>
+        <v>0.004857333333333333</v>
       </c>
       <c r="N4">
-        <v>0.049457</v>
+        <v>0.014572</v>
       </c>
       <c r="O4">
-        <v>0.001494854830393808</v>
+        <v>0.0004511406921505018</v>
       </c>
       <c r="P4">
-        <v>0.001837059708990754</v>
+        <v>0.0005935091071186595</v>
       </c>
       <c r="Q4">
-        <v>0.008251859235833334</v>
+        <v>0.002121836206</v>
       </c>
       <c r="R4">
-        <v>0.04951115541500001</v>
+        <v>0.012731017236</v>
       </c>
       <c r="S4">
-        <v>0.0008111870697381307</v>
+        <v>0.0002539645988359836</v>
       </c>
       <c r="T4">
-        <v>0.0008577837896678602</v>
+        <v>0.0003341093031896336</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +711,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>21</v>
@@ -729,16 +726,16 @@
         <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.5005475</v>
+        <v>0.4368315</v>
       </c>
       <c r="H5">
-        <v>1.001095</v>
+        <v>0.873663</v>
       </c>
       <c r="I5">
-        <v>0.5426527400820786</v>
+        <v>0.5629387977071691</v>
       </c>
       <c r="J5">
-        <v>0.4669329937779271</v>
+        <v>0.5629387977071691</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.0507295</v>
+        <v>3.609679</v>
       </c>
       <c r="N5">
-        <v>6.101459</v>
+        <v>7.219358</v>
       </c>
       <c r="O5">
-        <v>0.2766280443193008</v>
+        <v>0.3352607224473918</v>
       </c>
       <c r="P5">
-        <v>0.226636158581374</v>
+        <v>0.2940402635568179</v>
       </c>
       <c r="Q5">
-        <v>1.52703502440125</v>
+        <v>1.5768214920885</v>
       </c>
       <c r="R5">
-        <v>6.108140097605</v>
+        <v>6.307285968354</v>
       </c>
       <c r="S5">
-        <v>0.1501129662334152</v>
+        <v>0.1887312680129717</v>
       </c>
       <c r="T5">
-        <v>0.10582390002473</v>
+        <v>0.1655266724441742</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +773,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -791,108 +788,108 @@
         <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.5005475</v>
+        <v>0.4368315</v>
       </c>
       <c r="H6">
-        <v>1.001095</v>
+        <v>0.873663</v>
       </c>
       <c r="I6">
-        <v>0.5426527400820786</v>
+        <v>0.5629387977071691</v>
       </c>
       <c r="J6">
-        <v>0.4669329937779271</v>
+        <v>0.5629387977071691</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>1.763754333333333</v>
+        <v>3.7E-05</v>
       </c>
       <c r="N6">
-        <v>5.291263</v>
+        <v>0.000111</v>
       </c>
       <c r="O6">
-        <v>0.1599302435334539</v>
+        <v>3.436495802134621E-06</v>
       </c>
       <c r="P6">
-        <v>0.1965417649063538</v>
+        <v>4.520965611458359E-06</v>
       </c>
       <c r="Q6">
-        <v>0.8828428221641667</v>
+        <v>1.61627655E-05</v>
       </c>
       <c r="R6">
-        <v>5.297056932985</v>
+        <v>9.6976593E-05</v>
       </c>
       <c r="S6">
-        <v>0.08678658487542291</v>
+        <v>1.934536815179397E-06</v>
       </c>
       <c r="T6">
-        <v>0.09177183469012132</v>
+        <v>2.545026945789825E-06</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
         <v>20</v>
       </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.5005475</v>
+        <v>0.3391525</v>
       </c>
       <c r="H7">
-        <v>1.001095</v>
+        <v>0.6783049999999999</v>
       </c>
       <c r="I7">
-        <v>0.5426527400820786</v>
+        <v>0.4370612022928307</v>
       </c>
       <c r="J7">
-        <v>0.4669329937779271</v>
+        <v>0.4370612022928307</v>
       </c>
       <c r="K7">
         <v>2</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.07122033333333333</v>
+        <v>4.138389</v>
       </c>
       <c r="N7">
-        <v>0.213661</v>
+        <v>8.276778</v>
       </c>
       <c r="O7">
-        <v>0.006457977190625621</v>
+        <v>0.3843663898945971</v>
       </c>
       <c r="P7">
-        <v>0.00793634904023037</v>
+        <v>0.3371083667718477</v>
       </c>
       <c r="Q7">
-        <v>0.03564915979916667</v>
+        <v>1.4035449753225</v>
       </c>
       <c r="R7">
-        <v>0.213894958795</v>
+        <v>5.61417990129</v>
       </c>
       <c r="S7">
-        <v>0.003504439017880558</v>
+        <v>0.1679916364882875</v>
       </c>
       <c r="T7">
-        <v>0.003705743217021345</v>
+        <v>0.1473369880842763</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>24</v>
       </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.122698</v>
+        <v>0.3391525</v>
       </c>
       <c r="H8">
-        <v>0.245396</v>
+        <v>0.6783049999999999</v>
       </c>
       <c r="I8">
-        <v>0.1330191558295484</v>
+        <v>0.4370612022928307</v>
       </c>
       <c r="J8">
-        <v>0.1144581572589297</v>
+        <v>0.4370612022928307</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.1122635</v>
+        <v>3.013819333333333</v>
       </c>
       <c r="N8">
-        <v>6.224527</v>
+        <v>9.041457999999999</v>
       </c>
       <c r="O8">
-        <v>0.2822077032432218</v>
+        <v>0.2799183104700584</v>
       </c>
       <c r="P8">
-        <v>0.2312074682901326</v>
+        <v>0.3682533395986042</v>
       </c>
       <c r="Q8">
-        <v>0.381868506923</v>
+        <v>1.022144361448333</v>
       </c>
       <c r="R8">
-        <v>1.527474027692</v>
+        <v>6.132866168689999</v>
       </c>
       <c r="S8">
-        <v>0.03753903045400907</v>
+        <v>0.1223414333178216</v>
       </c>
       <c r="T8">
-        <v>0.02646358076499099</v>
+        <v>0.160949247353316</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.122698</v>
+        <v>0.3391525</v>
       </c>
       <c r="H9">
-        <v>0.245396</v>
+        <v>0.6783049999999999</v>
       </c>
       <c r="I9">
-        <v>0.1330191558295484</v>
+        <v>0.4370612022928307</v>
       </c>
       <c r="J9">
-        <v>0.1144581572589297</v>
+        <v>0.4370612022928307</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>3.013819333333334</v>
+        <v>0.004857333333333333</v>
       </c>
       <c r="N9">
-        <v>9.041458</v>
+        <v>0.014572</v>
       </c>
       <c r="O9">
-        <v>0.2732811768830042</v>
+        <v>0.0004511406921505018</v>
       </c>
       <c r="P9">
-        <v>0.3358411994729184</v>
+        <v>0.0005935091071186595</v>
       </c>
       <c r="Q9">
-        <v>0.3697896045613334</v>
+        <v>0.001647376743333333</v>
       </c>
       <c r="R9">
-        <v>2.218737627368</v>
+        <v>0.009884260459999999</v>
       </c>
       <c r="S9">
-        <v>0.03635163145308271</v>
+        <v>0.0001971760933145181</v>
       </c>
       <c r="T9">
-        <v>0.03843976482329885</v>
+        <v>0.0002593998039290258</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.122698</v>
+        <v>0.3391525</v>
       </c>
       <c r="H10">
-        <v>0.245396</v>
+        <v>0.6783049999999999</v>
       </c>
       <c r="I10">
-        <v>0.1330191558295484</v>
+        <v>0.4370612022928307</v>
       </c>
       <c r="J10">
-        <v>0.1144581572589297</v>
+        <v>0.4370612022928307</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.01648566666666667</v>
+        <v>3.609679</v>
       </c>
       <c r="N10">
-        <v>0.049457</v>
+        <v>7.219358</v>
       </c>
       <c r="O10">
-        <v>0.001494854830393808</v>
+        <v>0.3352607224473918</v>
       </c>
       <c r="P10">
-        <v>0.001837059708990754</v>
+        <v>0.2940402635568179</v>
       </c>
       <c r="Q10">
-        <v>0.002022758328666667</v>
+        <v>1.2242316570475</v>
       </c>
       <c r="R10">
-        <v>0.012136549972</v>
+        <v>4.896926628189999</v>
       </c>
       <c r="S10">
-        <v>0.0001988443276267071</v>
+        <v>0.1465294544344201</v>
       </c>
       <c r="T10">
-        <v>0.0002102664690657073</v>
+        <v>0.1285135911126437</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,557 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.122698</v>
+        <v>0.3391525</v>
       </c>
       <c r="H11">
-        <v>0.245396</v>
+        <v>0.6783049999999999</v>
       </c>
       <c r="I11">
-        <v>0.1330191558295484</v>
+        <v>0.4370612022928307</v>
       </c>
       <c r="J11">
-        <v>0.1144581572589297</v>
+        <v>0.4370612022928307</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>3.0507295</v>
+        <v>3.7E-05</v>
       </c>
       <c r="N11">
-        <v>6.101459</v>
+        <v>0.000111</v>
       </c>
       <c r="O11">
-        <v>0.2766280443193008</v>
+        <v>3.436495802134621E-06</v>
       </c>
       <c r="P11">
-        <v>0.226636158581374</v>
+        <v>4.520965611458359E-06</v>
       </c>
       <c r="Q11">
-        <v>0.374318408191</v>
+        <v>1.25486425E-05</v>
       </c>
       <c r="R11">
-        <v>1.497273632764</v>
+        <v>7.529185499999999E-05</v>
       </c>
       <c r="S11">
-        <v>0.03679682893413229</v>
+        <v>1.501958986955223E-06</v>
       </c>
       <c r="T11">
-        <v>0.02594035707946663</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.5</v>
-      </c>
-      <c r="G12">
-        <v>0.122698</v>
-      </c>
-      <c r="H12">
-        <v>0.245396</v>
-      </c>
-      <c r="I12">
-        <v>0.1330191558295484</v>
-      </c>
-      <c r="J12">
-        <v>0.1144581572589297</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>1.763754333333333</v>
-      </c>
-      <c r="N12">
-        <v>5.291263</v>
-      </c>
-      <c r="O12">
-        <v>0.1599302435334539</v>
-      </c>
-      <c r="P12">
-        <v>0.1965417649063538</v>
-      </c>
-      <c r="Q12">
-        <v>0.2164091291913333</v>
-      </c>
-      <c r="R12">
-        <v>1.298454775148</v>
-      </c>
-      <c r="S12">
-        <v>0.02127378598643413</v>
-      </c>
-      <c r="T12">
-        <v>0.02249580823559903</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.5</v>
-      </c>
-      <c r="G13">
-        <v>0.122698</v>
-      </c>
-      <c r="H13">
-        <v>0.245396</v>
-      </c>
-      <c r="I13">
-        <v>0.1330191558295484</v>
-      </c>
-      <c r="J13">
-        <v>0.1144581572589297</v>
-      </c>
-      <c r="K13">
-        <v>2</v>
-      </c>
-      <c r="L13">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M13">
-        <v>0.07122033333333333</v>
-      </c>
-      <c r="N13">
-        <v>0.213661</v>
-      </c>
-      <c r="O13">
-        <v>0.006457977190625621</v>
-      </c>
-      <c r="P13">
-        <v>0.00793634904023037</v>
-      </c>
-      <c r="Q13">
-        <v>0.008738592459333333</v>
-      </c>
-      <c r="R13">
-        <v>0.052431554756</v>
-      </c>
-      <c r="S13">
-        <v>0.0008590346742634987</v>
-      </c>
-      <c r="T13">
-        <v>0.0009083798865084431</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G14">
-        <v>0.299163</v>
-      </c>
-      <c r="H14">
-        <v>0.897489</v>
-      </c>
-      <c r="I14">
-        <v>0.324328104088373</v>
-      </c>
-      <c r="J14">
-        <v>0.4186088489631433</v>
-      </c>
-      <c r="K14">
-        <v>2</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>3.1122635</v>
-      </c>
-      <c r="N14">
-        <v>6.224527</v>
-      </c>
-      <c r="O14">
-        <v>0.2822077032432218</v>
-      </c>
-      <c r="P14">
-        <v>0.2312074682901326</v>
-      </c>
-      <c r="Q14">
-        <v>0.9310740854505001</v>
-      </c>
-      <c r="R14">
-        <v>5.586444512703</v>
-      </c>
-      <c r="S14">
-        <v>0.09152788935200831</v>
-      </c>
-      <c r="T14">
-        <v>0.09678549217261487</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G15">
-        <v>0.299163</v>
-      </c>
-      <c r="H15">
-        <v>0.897489</v>
-      </c>
-      <c r="I15">
-        <v>0.324328104088373</v>
-      </c>
-      <c r="J15">
-        <v>0.4186088489631433</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>3.013819333333334</v>
-      </c>
-      <c r="N15">
-        <v>9.041458</v>
-      </c>
-      <c r="O15">
-        <v>0.2732811768830042</v>
-      </c>
-      <c r="P15">
-        <v>0.3358411994729184</v>
-      </c>
-      <c r="Q15">
-        <v>0.9016232332180001</v>
-      </c>
-      <c r="R15">
-        <v>8.114609098962001</v>
-      </c>
-      <c r="S15">
-        <v>0.08863276598150406</v>
-      </c>
-      <c r="T15">
-        <v>0.1405860979457598</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G16">
-        <v>0.299163</v>
-      </c>
-      <c r="H16">
-        <v>0.897489</v>
-      </c>
-      <c r="I16">
-        <v>0.324328104088373</v>
-      </c>
-      <c r="J16">
-        <v>0.4186088489631433</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M16">
-        <v>0.01648566666666667</v>
-      </c>
-      <c r="N16">
-        <v>0.049457</v>
-      </c>
-      <c r="O16">
-        <v>0.001494854830393808</v>
-      </c>
-      <c r="P16">
-        <v>0.001837059708990754</v>
-      </c>
-      <c r="Q16">
-        <v>0.004931901497</v>
-      </c>
-      <c r="R16">
-        <v>0.044387113473</v>
-      </c>
-      <c r="S16">
-        <v>0.0004848234330289702</v>
-      </c>
-      <c r="T16">
-        <v>0.0007690094502571864</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G17">
-        <v>0.299163</v>
-      </c>
-      <c r="H17">
-        <v>0.897489</v>
-      </c>
-      <c r="I17">
-        <v>0.324328104088373</v>
-      </c>
-      <c r="J17">
-        <v>0.4186088489631433</v>
-      </c>
-      <c r="K17">
-        <v>2</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>3.0507295</v>
-      </c>
-      <c r="N17">
-        <v>6.101459</v>
-      </c>
-      <c r="O17">
-        <v>0.2766280443193008</v>
-      </c>
-      <c r="P17">
-        <v>0.226636158581374</v>
-      </c>
-      <c r="Q17">
-        <v>0.9126653894085001</v>
-      </c>
-      <c r="R17">
-        <v>5.475992336451</v>
-      </c>
-      <c r="S17">
-        <v>0.08971824915175325</v>
-      </c>
-      <c r="T17">
-        <v>0.0948719014771774</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-      <c r="F18">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G18">
-        <v>0.299163</v>
-      </c>
-      <c r="H18">
-        <v>0.897489</v>
-      </c>
-      <c r="I18">
-        <v>0.324328104088373</v>
-      </c>
-      <c r="J18">
-        <v>0.4186088489631433</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>1.763754333333333</v>
-      </c>
-      <c r="N18">
-        <v>5.291263</v>
-      </c>
-      <c r="O18">
-        <v>0.1599302435334539</v>
-      </c>
-      <c r="P18">
-        <v>0.1965417649063538</v>
-      </c>
-      <c r="Q18">
-        <v>0.527650037623</v>
-      </c>
-      <c r="R18">
-        <v>4.748850338606999</v>
-      </c>
-      <c r="S18">
-        <v>0.05186987267159689</v>
-      </c>
-      <c r="T18">
-        <v>0.0822741219806335</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-      <c r="F19">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G19">
-        <v>0.299163</v>
-      </c>
-      <c r="H19">
-        <v>0.897489</v>
-      </c>
-      <c r="I19">
-        <v>0.324328104088373</v>
-      </c>
-      <c r="J19">
-        <v>0.4186088489631433</v>
-      </c>
-      <c r="K19">
-        <v>2</v>
-      </c>
-      <c r="L19">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M19">
-        <v>0.07122033333333333</v>
-      </c>
-      <c r="N19">
-        <v>0.213661</v>
-      </c>
-      <c r="O19">
-        <v>0.006457977190625621</v>
-      </c>
-      <c r="P19">
-        <v>0.00793634904023037</v>
-      </c>
-      <c r="Q19">
-        <v>0.021306488581</v>
-      </c>
-      <c r="R19">
-        <v>0.191758397229</v>
-      </c>
-      <c r="S19">
-        <v>0.002094503498481565</v>
-      </c>
-      <c r="T19">
-        <v>0.003322225936700582</v>
+        <v>1.975938665668533E-06</v>
       </c>
     </row>
   </sheetData>
